--- a/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Analysis_Validation_UR.xlsx
@@ -312,7 +312,7 @@
     <x:t>both enamel and dentine caries are displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>I can change the grade of a caries roi to D3 or D4</x:t>
+    <x:t>I can change the grade of a caries roi to D</x:t>
   </x:si>
   <x:si>
     <x:t>DisableDentine</x:t>
@@ -327,7 +327,7 @@
     <x:t>only enamel caries are displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>I am unable to change the grade to D3 or D4</x:t>
+    <x:t>I am unable to change the grade to D</x:t>
   </x:si>
   <x:si>
     <x:t>ImageExport</x:t>
